--- a/biology/Médecine/Weston_Price/Weston_Price.xlsx
+++ b/biology/Médecine/Weston_Price/Weston_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Weston A. Price (né  le 6 septembre 1870, Newburgh, Ontario - mort le 23 janvier 1948, Santa Monica) est un dentiste et un nutritionniste américain.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été le dirigeant de la section de recherche de l'American Dental Association (en) de 1914 à 1923[1] mais a été plus tard marginalisé par cette association pour ses positions sur l'endodontie.
-Après avoir vendu son cabinet dentaire, il effectue, à partir de 1930, soit à l'âge de 60 ans, un voyage de douze années sur tous les continents afin d'étudier différentes peuplades isolées du monde. Il en arrive ainsi, par exemple, à démontrer que la carie est apparue moins d'une génération après l'ouverture des routes et des voies ferrées, soit en moyenne vingt ans après le début de l'importation de produits raffinés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été le dirigeant de la section de recherche de l'American Dental Association (en) de 1914 à 1923 mais a été plus tard marginalisé par cette association pour ses positions sur l'endodontie.
+Après avoir vendu son cabinet dentaire, il effectue, à partir de 1930, soit à l'âge de 60 ans, un voyage de douze années sur tous les continents afin d'étudier différentes peuplades isolées du monde. Il en arrive ainsi, par exemple, à démontrer que la carie est apparue moins d'une génération après l'ouverture des routes et des voies ferrées, soit en moyenne vingt ans après le début de l'importation de produits raffinés.
 </t>
         </is>
       </c>
@@ -545,12 +559,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Dental Infections, Oral and Systemic (1923) Penton publishing company; Cleveland, OH
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dental Infections, Oral and Systemic (1923) Penton publishing company; Cleveland, OH
 The Relation of Light to Life and Health: Some Biochemical and Clinical Aspects, Cleveland, Ohio (1926)
-Nutrition and Physical Degeneration: A Comparison of Primitive and Modern Diets and Their Effects (1939) Paul B. Hoeber, Inc; Medical Book Department of Harper &amp; Brothers. Les 21 premiers chapitres (sur 28) de cet ouvrage tombé dans le domaine public sont disponibles auprès du Project Gutenberg Australia.
-Articles de journaux
-1914 : « Some contributions to dental and medical science » Dental Summary, 34:253.
+Nutrition and Physical Degeneration: A Comparison of Primitive and Modern Diets and Their Effects (1939) Paul B. Hoeber, Inc; Medical Book Department of Harper &amp; Brothers. Les 21 premiers chapitres (sur 28) de cet ouvrage tombé dans le domaine public sont disponibles auprès du Project Gutenberg Australia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Weston_Price</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Weston_Price</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles de journaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1914 : « Some contributions to dental and medical science » Dental Summary, 34:253.
 1915 : « Are Endamebae Important Factors in The Etiology Of Pyorrhea Alveolaris? A Study of Their Habits », The Journal of the National Dental Association 2(2):143-165.
 1918 : « A Report of Laboratory Investigation of the Physical Properties of Root Filling Materials and the Efficiency of Root Fillings for Blocking Infection from Sterile Root Structures », Research Department Joura N.D.A. pg 1260-1280.
 1918 : « Letter on root-canal operations in the US army » reprinted in Journal of dental research 1919;329.
